--- a/A_prepost_processing/IDFs_Sensitivity.xlsx
+++ b/A_prepost_processing/IDFs_Sensitivity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wulic\Documents\GitHub\urban_climate_and_who\A_prepost_processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B2CC92-567A-4223-AD2D-082FED56CBAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BD54D6-0B08-4D3D-95A3-4A6890CA428C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cvrmse_energy" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>LargeOfficeWithCooling.csv</t>
   </si>
@@ -41,27 +41,6 @@
   </si>
   <si>
     <t>VCWG.csv</t>
-  </si>
-  <si>
-    <t>Total Site Energy [GJ]</t>
-  </si>
-  <si>
-    <t>HVAC Electricity Intensity [MJ/m2]</t>
-  </si>
-  <si>
-    <t>HVAC Natural Gas Intensity [MJ/m2]</t>
-  </si>
-  <si>
-    <t>Area[m2]</t>
-  </si>
-  <si>
-    <t>CVRMSE [%]</t>
-  </si>
-  <si>
-    <t>HVAC Electricity [MJ]</t>
-  </si>
-  <si>
-    <t>HVAC Natural Gas [MJ]</t>
   </si>
   <si>
     <t>MidriseApartmentWithCooling.csv</t>
@@ -171,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -179,7 +158,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -211,7 +189,37 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -227,7 +235,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CVRMSE [%]</c:v>
+                  <c:v>CVRMSE [%]_Shading</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -302,193 +310,56 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>14.926</c:v>
+                  <c:v>8.2720000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.999000000000001</c:v>
+                  <c:v>6.6449999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.132</c:v>
+                  <c:v>6.5789999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.509</c:v>
+                  <c:v>6.55</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.605</c:v>
+                  <c:v>6.2240000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.449</c:v>
+                  <c:v>6.3250000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.391</c:v>
+                  <c:v>6.31</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.795999999999999</c:v>
+                  <c:v>6.3140000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.206</c:v>
+                  <c:v>6.6539999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.196</c:v>
+                  <c:v>6.7240000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.092000000000001</c:v>
+                  <c:v>6.7480000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10.208</c:v>
+                  <c:v>6.7190000000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.103999999999999</c:v>
+                  <c:v>6.7460000000000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.972</c:v>
+                  <c:v>6.07</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14.856</c:v>
+                  <c:v>6.0679999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2720-4FE3-B644-2138C860BA46}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>cvrmse_energy!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CVRMSE [%]_Shading</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>cvrmse_energy!$A$2:$A$16</c:f>
-              <c:strCache>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>LargeOfficeWithCooling.csv</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>LargeOfficeWithoutCooling.csv</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MediumOfficeWithCooling.csv</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MediumOfficeWithoutCooling.csv</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>SmallOfficeWithCooling.csv</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>SmallOfficeWithoutCooling.csv</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>VCWG.csv</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MidriseApartmentWithCooling.csv</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>MidriseApartmentWithoutCooling.csv</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>StandAloneRetailWithCooling.csv</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>StandAloneRetailWithoutCooling.csv</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>StripMallWithCooling.csv</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>StripMallWithoutCooling.csv</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>SuperMarketWithCooling.csv</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>SuperMarketWithoutCooling.csv</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>cvrmse_energy!$J$2:$J$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>14.282999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.964</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11.052</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10.512</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10.59</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10.423</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13.391</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>13.039</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.211</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.167999999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10.130000000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10.206</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10.135999999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>12.747999999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>12.662000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2720-4FE3-B644-2138C860BA46}"/>
+              <c16:uniqueId val="{00000000-47D0-45C7-B070-659FEDE1992B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -502,11 +373,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="704378495"/>
-        <c:axId val="704388063"/>
+        <c:axId val="542303664"/>
+        <c:axId val="560386512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="704378495"/>
+        <c:axId val="542303664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -549,7 +420,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="704388063"/>
+        <c:crossAx val="560386512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -557,10 +428,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="704388063"/>
+        <c:axId val="560386512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="9"/>
+          <c:min val="5.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -609,7 +480,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="704378495"/>
+        <c:crossAx val="542303664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -621,37 +492,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1243,23 +1083,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABB2AED3-345A-BF41-A026-F7841F1B4B49}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{394B1955-E408-07F6-9B18-7487D4588E9D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1601,65 +1441,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" activeCellId="1" sqref="C1:C1048576 J1:J1048576"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>28</v>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1667,46 +1483,25 @@
         <v>46019.672400000003</v>
       </c>
       <c r="C2">
-        <v>14.926</v>
+        <v>8.2720000000000002</v>
       </c>
       <c r="D2">
-        <v>2222.0700000000002</v>
+        <v>2092.59</v>
       </c>
       <c r="E2">
-        <v>11.87</v>
+        <v>9.17</v>
       </c>
       <c r="F2">
-        <v>0.51</v>
+        <v>0.42</v>
       </c>
       <c r="G2">
-        <v>5918239.5599999996</v>
+        <v>4572051.96</v>
       </c>
       <c r="H2">
-        <v>254279.88</v>
-      </c>
-      <c r="I2" s="3">
-        <v>46019.672400000003</v>
-      </c>
-      <c r="J2" s="3">
-        <v>14.282999999999999</v>
-      </c>
-      <c r="K2" s="3">
-        <v>2119.96</v>
-      </c>
-      <c r="L2" s="3">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="M2" s="3">
-        <v>0.38</v>
-      </c>
-      <c r="N2" s="3">
-        <v>4886162.4000000004</v>
-      </c>
-      <c r="O2" s="3">
-        <v>189463.44</v>
+        <v>209406.96</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1714,46 +1509,25 @@
         <v>46019.672400000003</v>
       </c>
       <c r="C3">
-        <v>10.999000000000001</v>
+        <v>6.6449999999999996</v>
       </c>
       <c r="D3">
-        <v>1781.91</v>
+        <v>1773.04</v>
       </c>
       <c r="E3">
-        <v>2.5299999999999998</v>
+        <v>2.33</v>
       </c>
       <c r="F3">
         <v>0.36</v>
       </c>
       <c r="G3">
-        <v>1261427.6399999999</v>
+        <v>1161710.04</v>
       </c>
       <c r="H3">
         <v>179491.68</v>
       </c>
-      <c r="I3" s="3">
-        <v>46019.672400000003</v>
-      </c>
-      <c r="J3" s="3">
-        <v>10.964</v>
-      </c>
-      <c r="K3" s="3">
-        <v>1776.57</v>
-      </c>
-      <c r="L3" s="3">
-        <v>2.41</v>
-      </c>
-      <c r="M3" s="3">
-        <v>0.36</v>
-      </c>
-      <c r="N3" s="3">
-        <v>1201597.08</v>
-      </c>
-      <c r="O3" s="3">
-        <v>179491.68</v>
-      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1761,46 +1535,25 @@
         <v>4949.8643999999986</v>
       </c>
       <c r="C4">
-        <v>11.132</v>
+        <v>6.5789999999999997</v>
       </c>
       <c r="D4">
-        <v>259.24</v>
+        <v>247.77</v>
       </c>
       <c r="E4">
-        <v>13.6</v>
+        <v>11.3</v>
       </c>
       <c r="F4">
         <v>0.51</v>
       </c>
       <c r="G4">
-        <v>729340.79999999993</v>
+        <v>605996.4</v>
       </c>
       <c r="H4">
         <v>27350.28</v>
       </c>
-      <c r="I4" s="3">
-        <v>4949.8643999999986</v>
-      </c>
-      <c r="J4" s="3">
-        <v>11.052</v>
-      </c>
-      <c r="K4" s="3">
-        <v>251.63</v>
-      </c>
-      <c r="L4" s="3">
-        <v>12.07</v>
-      </c>
-      <c r="M4" s="3">
-        <v>0.51</v>
-      </c>
-      <c r="N4" s="3">
-        <v>647289.96</v>
-      </c>
-      <c r="O4" s="3">
-        <v>27350.28</v>
-      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1808,46 +1561,25 @@
         <v>4949.8643999999986</v>
       </c>
       <c r="C5">
-        <v>10.509</v>
+        <v>6.55</v>
       </c>
       <c r="D5">
-        <v>211.37</v>
+        <v>210.61</v>
       </c>
       <c r="E5">
-        <v>3.99</v>
+        <v>3.84</v>
       </c>
       <c r="F5">
         <v>0.51</v>
       </c>
       <c r="G5">
-        <v>213975.72</v>
+        <v>205931.51999999999</v>
       </c>
       <c r="H5">
         <v>27350.28</v>
       </c>
-      <c r="I5" s="3">
-        <v>4949.8643999999986</v>
-      </c>
-      <c r="J5" s="3">
-        <v>10.512</v>
-      </c>
-      <c r="K5" s="3">
-        <v>211.08</v>
-      </c>
-      <c r="L5" s="3">
-        <v>3.93</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0.51</v>
-      </c>
-      <c r="N5" s="3">
-        <v>210758.04</v>
-      </c>
-      <c r="O5" s="3">
-        <v>27350.28</v>
-      </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1855,46 +1587,25 @@
         <v>507.65</v>
       </c>
       <c r="C6">
-        <v>10.605</v>
+        <v>6.2240000000000002</v>
       </c>
       <c r="D6">
-        <v>28.08</v>
+        <v>26.88</v>
       </c>
       <c r="E6">
-        <v>16.29</v>
+        <v>13.93</v>
       </c>
       <c r="F6">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="G6">
-        <v>89595</v>
+        <v>76615</v>
       </c>
       <c r="H6">
-        <v>10010</v>
-      </c>
-      <c r="I6" s="3">
-        <v>507.65</v>
-      </c>
-      <c r="J6" s="3">
-        <v>10.59</v>
-      </c>
-      <c r="K6" s="3">
-        <v>27.39</v>
-      </c>
-      <c r="L6" s="3">
-        <v>14.94</v>
-      </c>
-      <c r="M6" s="3">
-        <v>1.82</v>
-      </c>
-      <c r="N6" s="3">
-        <v>82170</v>
-      </c>
-      <c r="O6" s="3">
-        <v>10010</v>
+        <v>10120</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1902,46 +1613,25 @@
         <v>507.65</v>
       </c>
       <c r="C7">
-        <v>10.449</v>
+        <v>6.3250000000000002</v>
       </c>
       <c r="D7">
-        <v>22.44</v>
+        <v>22.41</v>
       </c>
       <c r="E7">
-        <v>5.22</v>
+        <v>5.15</v>
       </c>
       <c r="F7">
         <v>1.87</v>
       </c>
       <c r="G7">
-        <v>28710</v>
+        <v>28325</v>
       </c>
       <c r="H7">
         <v>10285</v>
       </c>
-      <c r="I7" s="3">
-        <v>507.65</v>
-      </c>
-      <c r="J7" s="3">
-        <v>10.423</v>
-      </c>
-      <c r="K7" s="3">
-        <v>22.41</v>
-      </c>
-      <c r="L7" s="3">
-        <v>5.15</v>
-      </c>
-      <c r="M7" s="3">
-        <v>1.87</v>
-      </c>
-      <c r="N7" s="3">
-        <v>28325</v>
-      </c>
-      <c r="O7" s="3">
-        <v>10285</v>
-      </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1949,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>13.391</v>
+        <v>6.31</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1966,402 +1656,213 @@
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>13.391</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>3114.2020000000002</v>
       </c>
       <c r="C9">
-        <v>11.795999999999999</v>
+        <v>6.3140000000000001</v>
       </c>
       <c r="D9">
-        <v>109.45</v>
+        <v>102.85</v>
       </c>
       <c r="E9">
-        <v>8.69</v>
+        <v>6.33</v>
       </c>
       <c r="F9">
-        <v>6.52</v>
+        <v>6.78</v>
       </c>
       <c r="G9">
-        <v>293200.59999999998</v>
+        <v>213574.2</v>
       </c>
       <c r="H9">
-        <v>219984.8</v>
-      </c>
-      <c r="I9" s="3">
-        <v>3114.2020000000002</v>
-      </c>
-      <c r="J9" s="3">
-        <v>13.039</v>
-      </c>
-      <c r="K9" s="3">
-        <v>108.68</v>
-      </c>
-      <c r="L9" s="3">
-        <v>8.44</v>
-      </c>
-      <c r="M9" s="3">
-        <v>6.52</v>
-      </c>
-      <c r="N9" s="3">
-        <v>284765.59999999998</v>
-      </c>
-      <c r="O9" s="3">
-        <v>219984.8</v>
+        <v>228757.2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>3114.2020000000002</v>
       </c>
       <c r="C10">
-        <v>10.206</v>
+        <v>6.6539999999999999</v>
       </c>
       <c r="D10">
-        <v>82.44</v>
+        <v>83.16</v>
       </c>
       <c r="E10">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F10">
-        <v>6.5</v>
+        <v>6.72</v>
       </c>
       <c r="G10">
-        <v>3036.6</v>
+        <v>3374</v>
       </c>
       <c r="H10">
-        <v>219310</v>
-      </c>
-      <c r="I10" s="3">
-        <v>3114.2020000000002</v>
-      </c>
-      <c r="J10" s="3">
-        <v>10.211</v>
-      </c>
-      <c r="K10" s="3">
-        <v>82.45</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0.09</v>
-      </c>
-      <c r="M10" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="N10" s="3">
-        <v>3036.6</v>
-      </c>
-      <c r="O10" s="3">
-        <v>219310</v>
+        <v>226732.79999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>2303.9926</v>
       </c>
       <c r="C11">
-        <v>10.196</v>
+        <v>6.7240000000000002</v>
       </c>
       <c r="D11">
-        <v>152.22999999999999</v>
+        <v>151.25</v>
       </c>
       <c r="E11">
-        <v>19.21</v>
+        <v>18.420000000000002</v>
       </c>
       <c r="F11">
-        <v>0.27</v>
+        <v>0.64</v>
       </c>
       <c r="G11">
-        <v>479520.02</v>
+        <v>459800.04</v>
       </c>
       <c r="H11">
-        <v>6739.7400000000007</v>
-      </c>
-      <c r="I11" s="3">
-        <v>2303.9926</v>
-      </c>
-      <c r="J11" s="3">
-        <v>10.167999999999999</v>
-      </c>
-      <c r="K11" s="3">
-        <v>151.33000000000001</v>
-      </c>
-      <c r="L11" s="3">
-        <v>18.78</v>
-      </c>
-      <c r="M11" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="N11" s="3">
-        <v>468786.36</v>
-      </c>
-      <c r="O11" s="3">
-        <v>7488.5999999999995</v>
+        <v>15975.68</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>2303.9926</v>
       </c>
       <c r="C12">
-        <v>10.092000000000001</v>
+        <v>6.7480000000000002</v>
       </c>
       <c r="D12">
-        <v>131.97999999999999</v>
+        <v>132.69999999999999</v>
       </c>
       <c r="E12">
-        <v>10.38</v>
+        <v>10.34</v>
       </c>
       <c r="F12">
-        <v>0.27</v>
+        <v>0.63</v>
       </c>
       <c r="G12">
-        <v>259105.56</v>
+        <v>258107.08</v>
       </c>
       <c r="H12">
-        <v>6739.7400000000007</v>
-      </c>
-      <c r="I12" s="3">
-        <v>2303.9926</v>
-      </c>
-      <c r="J12" s="3">
-        <v>10.130000000000001</v>
-      </c>
-      <c r="K12" s="3">
-        <v>131.94999999999999</v>
-      </c>
-      <c r="L12" s="3">
-        <v>10.33</v>
-      </c>
-      <c r="M12" s="3">
-        <v>0.31</v>
-      </c>
-      <c r="N12" s="3">
-        <v>257857.46</v>
-      </c>
-      <c r="O12" s="3">
-        <v>7738.22</v>
+        <v>15726.06</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>2076.75</v>
       </c>
       <c r="C13">
-        <v>10.208</v>
+        <v>6.7190000000000003</v>
       </c>
       <c r="D13">
-        <v>152.82</v>
+        <v>152.33000000000001</v>
       </c>
       <c r="E13">
-        <v>18.16</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="F13">
-        <v>0.62</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="G13">
-        <v>408600</v>
+        <v>391499.99999999988</v>
       </c>
       <c r="H13">
-        <v>13950</v>
-      </c>
-      <c r="I13" s="3">
-        <v>2076.75</v>
-      </c>
-      <c r="J13" s="3">
-        <v>10.206</v>
-      </c>
-      <c r="K13" s="3">
-        <v>152.12</v>
-      </c>
-      <c r="L13" s="3">
-        <v>17.829999999999998</v>
-      </c>
-      <c r="M13" s="3">
-        <v>0.61</v>
-      </c>
-      <c r="N13" s="3">
-        <v>401174.99999999988</v>
-      </c>
-      <c r="O13" s="3">
-        <v>13725</v>
+        <v>25650</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>2076.75</v>
       </c>
       <c r="C14">
-        <v>10.103999999999999</v>
+        <v>6.7460000000000004</v>
       </c>
       <c r="D14">
-        <v>131.26</v>
+        <v>132.16</v>
       </c>
       <c r="E14">
-        <v>7.85</v>
+        <v>7.83</v>
       </c>
       <c r="F14">
-        <v>0.61</v>
+        <v>1.07</v>
       </c>
       <c r="G14">
-        <v>176625</v>
+        <v>176175</v>
       </c>
       <c r="H14">
-        <v>13725</v>
-      </c>
-      <c r="I14" s="3">
-        <v>2076.75</v>
-      </c>
-      <c r="J14" s="3">
-        <v>10.135999999999999</v>
-      </c>
-      <c r="K14" s="3">
-        <v>131.19999999999999</v>
-      </c>
-      <c r="L14" s="3">
-        <v>7.83</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0.61</v>
-      </c>
-      <c r="N14" s="3">
-        <v>176175</v>
-      </c>
-      <c r="O14" s="3">
-        <v>13725</v>
+        <v>24075</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>4153.5</v>
       </c>
       <c r="C15">
-        <v>14.972</v>
+        <v>6.07</v>
       </c>
       <c r="D15">
-        <v>697.28</v>
+        <v>686.16</v>
       </c>
       <c r="E15">
-        <v>28.02</v>
+        <v>26.61</v>
       </c>
       <c r="F15">
-        <v>2.11</v>
+        <v>3.71</v>
       </c>
       <c r="G15">
-        <v>1260900</v>
+        <v>1197450</v>
       </c>
       <c r="H15">
-        <v>94950</v>
-      </c>
-      <c r="I15" s="3">
-        <v>4153.5</v>
-      </c>
-      <c r="J15" s="3">
-        <v>12.747999999999999</v>
-      </c>
-      <c r="K15" s="3">
-        <v>691.94</v>
-      </c>
-      <c r="L15" s="3">
-        <v>26.96</v>
-      </c>
-      <c r="M15" s="3">
-        <v>2.59</v>
-      </c>
-      <c r="N15" s="3">
-        <v>1213200</v>
-      </c>
-      <c r="O15" s="3">
-        <v>116550</v>
+        <v>166950</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>4153.5</v>
       </c>
       <c r="C16">
-        <v>14.856</v>
+        <v>6.0679999999999996</v>
       </c>
       <c r="D16">
-        <v>669.29</v>
+        <v>663.6</v>
       </c>
       <c r="E16">
-        <v>21.27</v>
+        <v>21.2</v>
       </c>
       <c r="F16">
-        <v>2.09</v>
+        <v>3.63</v>
       </c>
       <c r="G16">
-        <v>957150</v>
+        <v>954000</v>
       </c>
       <c r="H16">
-        <v>94050</v>
-      </c>
-      <c r="I16" s="3">
-        <v>4153.5</v>
-      </c>
-      <c r="J16" s="3">
-        <v>12.662000000000001</v>
-      </c>
-      <c r="K16" s="3">
-        <v>667.91</v>
-      </c>
-      <c r="L16" s="3">
-        <v>21.2</v>
-      </c>
-      <c r="M16" s="3">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="N16" s="3">
-        <v>954000</v>
-      </c>
-      <c r="O16" s="3">
-        <v>114750</v>
+        <v>163350</v>
       </c>
     </row>
   </sheetData>

--- a/A_prepost_processing/IDFs_Sensitivity.xlsx
+++ b/A_prepost_processing/IDFs_Sensitivity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wulic\Documents\GitHub\urban_climate_and_who\A_prepost_processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BD54D6-0B08-4D3D-95A3-4A6890CA428C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35670EE2-9930-441F-8BDD-2195F8AF0DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cvrmse_energy" sheetId="4" r:id="rId1"/>
@@ -1083,16 +1083,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>

--- a/A_prepost_processing/IDFs_Sensitivity.xlsx
+++ b/A_prepost_processing/IDFs_Sensitivity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wulic\Documents\GitHub\urban_climate_and_who\A_prepost_processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35670EE2-9930-441F-8BDD-2195F8AF0DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014EABB4-E579-42E6-924C-7C9B767B8626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cvrmse_energy" sheetId="4" r:id="rId1"/>
@@ -1083,16 +1083,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1444,12 +1444,13 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
